--- a/KDDB.xlsx
+++ b/KDDB.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA2CD141-86A9-4088-8D79-8C2E32AB9C67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="4440" yWindow="4035" windowWidth="15885" windowHeight="11430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resveratrol" sheetId="1" r:id="rId1"/>
@@ -30,9 +31,6 @@
     <t>System</t>
   </si>
   <si>
-    <t>Number</t>
-  </si>
-  <si>
     <t>Resveratrol</t>
   </si>
   <si>
@@ -58,12 +56,15 @@
   </si>
   <si>
     <t>A</t>
+  </si>
+  <si>
+    <t>Composition</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -93,8 +94,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,11 +378,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -388,7 +392,7 @@
     <col min="3" max="3" width="16.85546875" customWidth="1"/>
     <col min="4" max="4" width="16.28515625" customWidth="1"/>
     <col min="5" max="5" width="21.140625" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -399,27 +403,27 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" t="s">
-        <v>3</v>
+      <c r="G1" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
       </c>
       <c r="C2">
         <v>3.1</v>
@@ -431,9 +435,9 @@
         <v>6</v>
       </c>
       <c r="F2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1">
         <v>1</v>
       </c>
     </row>
@@ -442,9 +446,9 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3">
+        <v>7</v>
+      </c>
+      <c r="G3" s="1">
         <v>2</v>
       </c>
     </row>
@@ -453,10 +457,10 @@
         <v>2</v>
       </c>
       <c r="F4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="G4" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
